--- a/Doval Constructions/37111/res.xlsx
+++ b/Doval Constructions/37111/res.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Doval Constructions\37111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A4683DD-919A-4BF6-907F-4C5E082BBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DEC238-09DF-4571-A212-9570E8BD188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="585" windowWidth="28890" windowHeight="19710" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="6360" yWindow="1695" windowWidth="26775" windowHeight="17400" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$536:$C$585</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="256">
   <si>
     <t>type</t>
   </si>
@@ -47,6 +63,747 @@
   </si>
   <si>
     <t>Resource Id</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>Excavation</t>
+  </si>
+  <si>
+    <t>Hold Point</t>
+  </si>
+  <si>
+    <t>Final Verification</t>
+  </si>
+  <si>
+    <t>Contractor's Quality Representative Verify that the Above has been Constructed according to Specification</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>Print Name:</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>signoff</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Check Item - Check Item</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>The Traffic Management Inspection report to the Contractor for action, together with documentation of any actions taken in regard to findings.</t>
+  </si>
+  <si>
+    <t>Check Item - Milestone</t>
+  </si>
+  <si>
+    <t>Reference - MRTS02 Cl. 7.5</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Final Sign Offs (to be completed at closure of Lot)</t>
+  </si>
+  <si>
+    <t>Agreed Quantities</t>
+  </si>
+  <si>
+    <t>Agreed Quantities Sign Off</t>
+  </si>
+  <si>
+    <t>Closure of Lot</t>
+  </si>
+  <si>
+    <t>Closure of Lot Sign Off</t>
+  </si>
+  <si>
+    <t>02.01 - Traffic Management</t>
+  </si>
+  <si>
+    <t>The Contractor's Nominated Traffic Officer submitted to the Administrator and meets the requirements as specified</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Accreditation Supplied to Administrator</t>
+  </si>
+  <si>
+    <t>No traffic rearrangements shall be carried out until after the Administrator has advised the Contractor that the submitted, and amended as directed, TMP is approved and suitable for use.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Approval via Contract Notice - Per NTO</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point 1</t>
+  </si>
+  <si>
+    <t>All traffic control devices inspected and records kept in accordance with the specification</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Site Records - Daily</t>
+  </si>
+  <si>
+    <t>In the event of a traffic crash/incident within the site, the Contractor shall record the date and take time and date stamped photographs of the signs/devices in the vicinity of the crash.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Incident Report - Per incident</t>
+  </si>
+  <si>
+    <t>All TGS's prepared by a suitably qualified person and submitted to the Administrator for review and shall be accompanied with a specific risk assessment, as required. Innovations, alternatives and departures from standards shall be certified by a RPEQ.</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point 2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Submission of report to Administrator - Per inspection</t>
+  </si>
+  <si>
+    <t>Reference - MRTS02 Cl. 5.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS02 Cl. 5.3</t>
+  </si>
+  <si>
+    <t>Reference - MRTS02 Cl. 5.6.4</t>
+  </si>
+  <si>
+    <t>Reference - MRTS02 Cl. 5.6.5</t>
+  </si>
+  <si>
+    <t>Reference - MRTS02 Cl. 6.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - TMD sign off of TGS and, RPEQ Risk Assessment as required</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>Administrator's Representative Verify that the Lot Records is in accordance with Specification (only applicable when lot ITP is being audited)</t>
+  </si>
+  <si>
+    <t>Culverts and culvert end structures shall be removed or demolished where specified in the drawings.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Culvert Removal - Per Culvert</t>
+  </si>
+  <si>
+    <t>If existing culvert components are to be removed and re-used, they shall be removed and stacked in a manner which avoids damaging the components.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Visual - Per Culvert</t>
+  </si>
+  <si>
+    <t>Removed components which are not to be salvaged, nor reused, shall be removed from the Site and disposed.</t>
+  </si>
+  <si>
+    <t>Excavations carried out and the void left by the removed culvert or end structure shall be backfilled to reinstate the area to a safe and free draining state.</t>
+  </si>
+  <si>
+    <t>Existing kerbs, channels, kerbs and channels, kerb crossings and concrete slabs shall be removed or demolished where specified in the drawings.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Visual - Per Kerb</t>
+  </si>
+  <si>
+    <t>Any Kerb and Channel or concrete slab to be removed is saw cut at removal extents or removed to existing joint (or removed in its entirety) where specified in the drawings and no damage shall occur to adjacent work</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Visual</t>
+  </si>
+  <si>
+    <t>Kerb excavations shall be backfilled to flush with the surrounding area.</t>
+  </si>
+  <si>
+    <t>Administrator's Representative Verify that the Above has been Constructed according to Specification</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl 9.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl 9.4</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl. 9.4</t>
+  </si>
+  <si>
+    <t>03.09 - Removal of Existing Drainage Structures and Concrete Slabs</t>
+  </si>
+  <si>
+    <t>03.10 - Supply and Installation of Precast Concrete Culverts</t>
+  </si>
+  <si>
+    <t>Maximum Lot Size - 1 Culvert</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Lot size &lt;/= 1 Culvert - Per lot</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Manufacture and Test Certificates</t>
+  </si>
+  <si>
+    <t>All pipes of diameter 800 mm or less shall have spigot and socket joints with rubber sealing rings. Joints for other sizes shall be as specified on the drawings.</t>
+  </si>
+  <si>
+    <t>Component size, wall thickness and class is as specified in the drawings</t>
+  </si>
+  <si>
+    <t>Culvert Construction Procedures to be accepted prior to commencement of Installation</t>
+  </si>
+  <si>
+    <t>Load testing of non standard pipes ordered for specific projects shall be a witness point</t>
+  </si>
+  <si>
+    <t>Check Item - Witness Point</t>
+  </si>
+  <si>
+    <t>Reference - Annexure MRTS26.1 Cl 2</t>
+  </si>
+  <si>
+    <t>Where Unsuitable Material (in accordance with the provisions of Cl. 9.2) or potentially unsuitable Material is encountered on site the contactor shall, before proceding with removal, shall notify the Administrator. Once Identified the Unsuitable material shall be removed and disposed of in accordance with the provisions of Cl. 9.3 and CL.11.3</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point 4</t>
+  </si>
+  <si>
+    <t>Check Item - Test results</t>
+  </si>
+  <si>
+    <t>Components are assembled as per manufaturers specifications, and if possible, contruction commenced at outlet</t>
+  </si>
+  <si>
+    <t>Pipes shall be placed with their external grooved ends or spigot ends facing the culvert outlet</t>
+  </si>
+  <si>
+    <t>The pipes shall be laid with the lifting hole or "TOP" marking uppermost. Lifting holes shall be plugged or otherwise closed off in accordance with the manufacturer’s instructions after the pipe is installed.</t>
+  </si>
+  <si>
+    <t>Placed with external groove or spigot end facing outlet with minimum of 50mm bedding material</t>
+  </si>
+  <si>
+    <t>Check Item - Survey Results</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl.8.2</t>
+  </si>
+  <si>
+    <t>The invert heights of culverts shall not vary from those specified by more than ± 10 mm and nowhere shall the grades of culverts depart from those specified by more than 1%</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl.8.3</t>
+  </si>
+  <si>
+    <t>FRCP: The maximum angle of deflection of joints for pipes is two degrees</t>
+  </si>
+  <si>
+    <t>Backfilling of culverts shall not commence until all the conformance and As Constructed Survey requirements have been met and notice of such works provided to the Administrator</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 11.3.10</t>
+  </si>
+  <si>
+    <t>Supervisor/QA Verify that the Above has been Constructed according to Specification</t>
+  </si>
+  <si>
+    <t>Project Manager Verify that the Above has been Constructed according to Specification</t>
+  </si>
+  <si>
+    <t>Concrete Pipe culvert components comply with MRTS25/26, FRCP with Slotted Drain Insert Complies with MRTS26</t>
+  </si>
+  <si>
+    <t>Bandage Covers are a Proprietary Product, either: Synthetic or Rubber Band, samples inspected by administrator</t>
+  </si>
+  <si>
+    <t>The horizontal alignment of culverts shall not vary from the location specified in the Drawings by more than ± 100 mm</t>
+  </si>
+  <si>
+    <t>For the specified pipe class and size, the contractor shall progressively backfill the pipe using the fill depth and construction equipment permissible in Table B1 of AS/NZS 3725.</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Table A.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl10.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl11.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl11.3.1</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl.11.3.1</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 9.4</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl11.3.3, Cl11.3.4</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl11.3.5</t>
+  </si>
+  <si>
+    <t>Reference - MRTS26.1 Cl 2, MRTS26 5.5</t>
+  </si>
+  <si>
+    <t>Reference - MRTS26.1 Cl 2, MRTS26 11</t>
+  </si>
+  <si>
+    <t>Excavations shall be carried out in accordance with Clause 13 of MRTS04 General Earth works</t>
+  </si>
+  <si>
+    <t>Bottom of excavation compaction tested. 0 - 150mm below foundation -RDD Q140A</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Cl 15, Table 15.3(b), CV 95% minimum (1 tests / 50m2 - min 2 / lot)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - ± 100mm (All points shown on drawings - min 1 per 20m or 2 points)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - ± 10mm, ± 1% grade (All points shown on drawings - min 1 per 20m or 2 points)</t>
+  </si>
+  <si>
+    <t>Fibre-reinforced concrete pipes shall be designed for installation in accordance with AS/NZS 3725. Construction load cases shall be considered in accordance with Clause 5.5.1. Designs already completed to AS 5100.2 shall be deemed to comply with these requirements.</t>
+  </si>
+  <si>
+    <t>Culvert Installation</t>
+  </si>
+  <si>
+    <t>FRCP with Slotted Drain Installation</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point 14</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl.19.3.3</t>
+  </si>
+  <si>
+    <t>Overlay material within 300 mm of the structure, culvert, pipe, etc shall be general back fill Class A1, A2 or B material conforming to MRTS04 Cl.19.2.2 excep 100% material shall pass 25.0mm test sieve.</t>
+  </si>
+  <si>
+    <t>Compaction - Q142A, Q141B</t>
+  </si>
+  <si>
+    <t>CCTV inspection undertaken, report submitted and accepted by administrator. Visual inspection may be approved by the Administrator in lieu of CCTV inspection.</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point 3</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Top 300mm below Subgrade Level ≥97%</t>
+  </si>
+  <si>
+    <t>○ Greater than 300mm below Subgrade Level ≥95% (1 test / 50m3, min 1 per lot)</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Table 15.3(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Class A2: </t>
+  </si>
+  <si>
+    <t>○ Class B:</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Class A1:</t>
+  </si>
+  <si>
+    <t>○ Except: 100% passing 25mm</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Class A1/A2: 70-100%</t>
+  </si>
+  <si>
+    <t>○ Class B: 80-110%</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Table 15.3(c)</t>
+  </si>
+  <si>
+    <t>Backfill</t>
+  </si>
+  <si>
+    <t>Backfill material shall not be placed until culverts, structures, pipes, conduits, pits, etc have been completed and inspected, and any specified curing periods have elapsed.</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 19.3.1, 19.2.2 Table 14.2.2</t>
+  </si>
+  <si>
+    <t>Moisture content within ranges specified Rainfall Zone: HIGH</t>
+  </si>
+  <si>
+    <t>Culvert Construction Procedures accept prior to commencement of Installation</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Administrator Approval - Per Project</t>
+  </si>
+  <si>
+    <t>Excavations shall be carried out in accordance with Clause 13 of MRTS04 General Earthworks.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Visual - Per lot</t>
+  </si>
+  <si>
+    <t>Cast In Situ material: In accordance with MRTS03 Cl.6.1, MRTS 70 &amp; MRTS71</t>
+  </si>
+  <si>
+    <t>Gullies/Chambers: Vertical Tolerances: Invert heights shall not vary from those specified by the Drawings by more than ± 50 mm</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl.21.4.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl.21.4.1</t>
+  </si>
+  <si>
+    <t>Gullies/Chambers: join neatly to existing drainage structures, do not pond water unnecessarily and are at heights compatible with other adjacent structures.</t>
+  </si>
+  <si>
+    <t>Gullies/Chambers: Grates on gullies or Concrete top slabs on precast concrete access chambers shall not be installed until all the surveying requirements have been met and notice of such works provided to the Administrator</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl.21.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Quarry Material Test Results</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point 8</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Test Results</t>
+  </si>
+  <si>
+    <t>Check Item - Witness Point 5</t>
+  </si>
+  <si>
+    <t>Hold Point 12</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point 12</t>
+  </si>
+  <si>
+    <t>Overlay material within 300 mm of the structure, culvert, pipe, etc shall be general back fill Class A1, A2 or B material conforming to MRTS04 Cl.19.2.2 except 100% material shall pass 25.0mm test sieve. Else where material may contain stone sized up to 150mm maximum dimension</t>
+  </si>
+  <si>
+    <t>CCTV inspection undertaken, report submitted and accepted by administrator.</t>
+  </si>
+  <si>
+    <t>03.11 - Installation of Culvert Components and Structures - Precast or In-Situ</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Tolerances</t>
+  </si>
+  <si>
+    <t>Where Unsuitable Material (in accordance with the provisions of Cl. 9.2) or potentially unsuitable Material is encountered on site the contactor shall, before proceding with removal, shall notify the Administrator. Once Identified the Unsuitable material shall be removed and disposed of in accordance with the provisions of Cl. 9.2 and CL.11</t>
+  </si>
+  <si>
+    <t>Reference Unsuitable Lot No. :</t>
+  </si>
+  <si>
+    <t>Precast: Installed in accordance with MRTS03 - Components shall be laid on a foundation bedding which provides continuous even support to the structures.</t>
+  </si>
+  <si>
+    <t>Gullies/Chambers: Vertical Tolerances: The heights of the tops of back-units, grates and frames shall not vary from those described in the Drawings by more than ± 10 mm</t>
+  </si>
+  <si>
+    <t>Horizontal tolerances: Gullies: shall not vary from those specified in the Drawings by more than ± 100 mm in the direction of the construction centre line and ± 50 mm in the direction at right angles to the construction centre line. Access Chambers: shall not vary from those specified in the Drawings by more than ±100mm</t>
+  </si>
+  <si>
+    <t>Prior to incorporating any Backfill material into the Works, the Contractor shall submit stockpile or source tests results as specified in Appendix A which demonstrate the source meets the specified material requirements</t>
+  </si>
+  <si>
+    <t>Material for backfill shall be as shown on the drawings or as specified elsewhere in the ContractEarth Backfill Material shall comply with the requirements of Earth Fill Material Class A1, Class A2 or Class B specified in Clause 14.2.2 except that 100% of the material shall pass 25.0 mm test sieve.</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl 11.3.1</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point 5, Hold Point 6</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl 12.3.1</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl 9.4</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Cl 15, Table 15.3(b)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - MRTS03</t>
+  </si>
+  <si>
+    <t>○ Cl.15: End Structures</t>
+  </si>
+  <si>
+    <t>○ Cl.21: Gullies</t>
+  </si>
+  <si>
+    <t>○ Cl.21: Access Chambers</t>
+  </si>
+  <si>
+    <t>○ Cl.19: Precast End Structures</t>
+  </si>
+  <si>
+    <t>○ Cl.21: Precast Gullies</t>
+  </si>
+  <si>
+    <t>○ Cl.21.5.1 Precast Access Chamber</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03</t>
+  </si>
+  <si>
+    <t>○ Cl. 16</t>
+  </si>
+  <si>
+    <t>○ Cl. 21</t>
+  </si>
+  <si>
+    <t>○ Cl. 21.5.1</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl. 21.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Gullies:</t>
+  </si>
+  <si>
+    <t>Access Chambers:</t>
+  </si>
+  <si>
+    <t>○ ±100mm in road direction</t>
+  </si>
+  <si>
+    <t>○ ±50mm perpendicular to road</t>
+  </si>
+  <si>
+    <t>○ ±100mm (All points specified on drawings)</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 19.3.1</t>
+  </si>
+  <si>
+    <t>○ % passing 0.075mm: 15 - 30</t>
+  </si>
+  <si>
+    <t>○ Class B: 1200 &lt; WPI &lt; 2200</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Table 15.3(b), MRTS03.1 Cl.1</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Class A: 70-100%</t>
+  </si>
+  <si>
+    <t>Bottom of excavation compaction tested. 0 - 150mm below foundation - AS 1289.5.4.1 or AS1289.5.7.1</t>
+  </si>
+  <si>
+    <t>○ CV 95% minimum (1 tests / 50m2 - min 2 / lot)</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl.6.1</t>
+  </si>
+  <si>
+    <t>Precast: Culverts shall be joined to shafts/pits to form watertight joints using cement mortar. Cement mortar shall be used within one hour of mixing and shall not be re-tempered. The joints shall be finished to given smooth surfaces which are uniform with the surfaces of the shafts.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - ±50mm (All points specified on drawings)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - ±10mm (All points specified on drawings)</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 14.2.1</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Class A: WPI &lt; 1200, PI &gt; 7,</t>
+  </si>
+  <si>
+    <t>○ Class A/B: 100% passing 25mm</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 19.3.1, 19.2.2</t>
+  </si>
+  <si>
+    <t>A water test on a side inlet gully shall be carried out where the longitudinal grade is less than 1%. Water shall be discharged into the side inlet gully to check uniformity of flow. After the flow has ceased, water shall not pond to a depth of more than 5 mm in any section of the channel.</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl. 21.6.2</t>
+  </si>
+  <si>
+    <t>03.22 - Subsoil Drainage</t>
+  </si>
+  <si>
+    <t>Backfill materialshall be damp when placed in trench. Material shall be carefully placed in layers not exceeding 200mm loose thickness. Shall be compacted to achieve effective mechanical interlock between particles.</t>
+  </si>
+  <si>
+    <t>Subsoil Drains shall be constructed in the locations and in accordance to the drawings. Subsoil Drains shall be installed to the grades specified in the drawings. Where the grades are not specified, the bottom of trenches shall be trimmed to provide not less that 0.5% longitudinal fall towards outlets for pipe type drains and not less that 1% longitudinal fall towards outlets for strip filter type drains.</t>
+  </si>
+  <si>
+    <t>Cleanout and outlet pipes, Geotextiles, trench backfill, concrete for headwalls and surrounds, marker posts shall be as per specification</t>
+  </si>
+  <si>
+    <t>Clean-outs shall be located at the heads of all subsoil drains and at subsequent spacings not exceeding 60m for Type B subsoil drains and 50m for Type D subsoil drains. Cleanouts shall be constructed in accordance with the details shown on Standard Drawings 1116.</t>
+  </si>
+  <si>
+    <t>Marker posts installed where and when required as shown in the project drawings or standard drawings.</t>
+  </si>
+  <si>
+    <t>Where directed by Administrator, drains shall be flushed until outlet water is clean and flows consistently</t>
+  </si>
+  <si>
+    <t>As Constructed drawings prepared</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - As constructed drawings submitted to administrator</t>
+  </si>
+  <si>
+    <t>All geometric tolerance requirements met</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Survey</t>
+  </si>
+  <si>
+    <t>Subsoil Drains constructed to appropriate dimensions, inspect trench prior to backfill</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl 22.3</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl22.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl22.3 TMR SD 1116</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl22.2.7 TMR SD 1116</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl22.3</t>
+  </si>
+  <si>
+    <t>03.35 - Rock Protection</t>
+  </si>
+  <si>
+    <t>Rock employed as per drawings. If not specified, between 150 - 500mm, with at least 50% larger than twice the minimum size</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Visual Inspection</t>
+  </si>
+  <si>
+    <t>Uniform appearance overall, and shall not have noticeable overall irregularities in horizontal and vertical alignments. The layers of placed rock shall be of even thickness and of even grading</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Written Approval</t>
+  </si>
+  <si>
+    <t>Check Item - Witness Point 1</t>
+  </si>
+  <si>
+    <t>Geotextile - Inspection of product to be incorporated into works. Where Lot sites are greater than 5000m2, a representative sample covering approximately 15 m² of geotextile shall be cut from each sampled roll but not within two metres of the start or end of the roll. Where directed by the Administrator, samples shall also be cut and supplied to the Administrator.</t>
+  </si>
+  <si>
+    <t>Ordering Geotextile - Documentation which demonstrates that the design of the geotextile is in accordance with MRTS27 Cl. 6 submitted to the administrator and accepted prior to ordering.</t>
+  </si>
+  <si>
+    <t>Compliance of delivered Geotextile - Geotextile shall not be placed prior to acceptance of the test results by the Administrator</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl 35.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS03 Cl 35.3</t>
+  </si>
+  <si>
+    <t>Reference - MRTS27 Cl 8.1</t>
+  </si>
+  <si>
+    <t>Reference - MRTS27 Cl 10.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS27 Cl 10.4</t>
+  </si>
+  <si>
+    <t>04.07 - Clear and Grub</t>
+  </si>
+  <si>
+    <t>Any trees, shrubs and overhanging branches to be left undisturbed shall be clearly marked prior to clearing operations reaching the areas concerned.</t>
+  </si>
+  <si>
+    <t>Any trees required by the Administrator for use as marketable timber shall be as nominated in Clause 1.3 of Annexure MRTS04.1. Such trees shall be clearly marked by the Contractor prior to clearing operations reaching the areas concerned</t>
+  </si>
+  <si>
+    <t>As soon as practicable and prior to initial earthworks operations (clearing and grubbing) for any stage or section of the Works, erosion and sediment controls associated with drainage paths flowing through the Works area shall be installed.</t>
+  </si>
+  <si>
+    <t>Hollow timber which is identified as being suitable for fauna habitat logs relocated to areas clear of construction activities</t>
+  </si>
+  <si>
+    <t>Surplus topsoil material and material considered not suitable for use as planting media in accordance with Cl. 8.3 shall be assessed for suitability for use as fill or deemed as unsuitable and disposed in accordance with Cl. 11</t>
+  </si>
+  <si>
+    <t>The scope of clearing and grubbing shall include the items as per Annexure MRTS04.1 Cl. 1.2 &amp; Cl. 1.4</t>
+  </si>
+  <si>
+    <t>The additional width for clearing (no grubbing) is 3.0m as per Annexure MRTS04.1</t>
+  </si>
+  <si>
+    <t>Material not to be removed from within drip lines of existing plants to be retained except where this would result in unsuitable material being left beneath embankments. Root systems of existing plants to be retained are preserved where practical.</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 7.2.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 7.2.3</t>
+  </si>
+  <si>
+    <t>Reference - MRTS52 Cl. 7.1</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 7.2.5</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 8.4.2</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 7.2.8, MRTS04.1 Cl 1.2, Cl 1.4</t>
+  </si>
+  <si>
+    <t>Reference - Annexure MRTS04.1</t>
+  </si>
+  <si>
+    <t>Reference - MRTS04 Cl. 8.4.3</t>
   </si>
 </sst>
 </file>
@@ -189,7 +946,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +1126,60 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -530,8 +1341,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,16 +1743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="176" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="224.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
@@ -950,7 +1786,3951 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>28</v>
+      </c>
+      <c r="B162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>28</v>
+      </c>
+      <c r="B170" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>28</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>28</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>28</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>28</v>
+      </c>
+      <c r="B188" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>28</v>
+      </c>
+      <c r="B191" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>28</v>
+      </c>
+      <c r="B192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+      <c r="B199" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>28</v>
+      </c>
+      <c r="B204" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>28</v>
+      </c>
+      <c r="B206" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>28</v>
+      </c>
+      <c r="B211" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>28</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>28</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>28</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>28</v>
+      </c>
+      <c r="B228" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>28</v>
+      </c>
+      <c r="B232" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>28</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>28</v>
+      </c>
+      <c r="B268" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>28</v>
+      </c>
+      <c r="B269" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>28</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B273" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>28</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>28</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>28</v>
+      </c>
+      <c r="B279" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>28</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>28</v>
+      </c>
+      <c r="B283" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B284" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>28</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>28</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>28</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>28</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>28</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>28</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>28</v>
+      </c>
+      <c r="B298" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>28</v>
+      </c>
+      <c r="B299" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>28</v>
+      </c>
+      <c r="B305" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>28</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>28</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>28</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>28</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>28</v>
+      </c>
+      <c r="B311" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>28</v>
+      </c>
+      <c r="B312" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>28</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>28</v>
+      </c>
+      <c r="B318" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>28</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>28</v>
+      </c>
+      <c r="B321" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>28</v>
+      </c>
+      <c r="B322" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>28</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>28</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>28</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>28</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>28</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>28</v>
+      </c>
+      <c r="B329" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>28</v>
+      </c>
+      <c r="B330" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>28</v>
+      </c>
+      <c r="B332" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>28</v>
+      </c>
+      <c r="B333" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>28</v>
+      </c>
+      <c r="B334" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>28</v>
+      </c>
+      <c r="B336" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B337" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>28</v>
+      </c>
+      <c r="B338" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>28</v>
+      </c>
+      <c r="B342" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B343" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>28</v>
+      </c>
+      <c r="B344" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>28</v>
+      </c>
+      <c r="B347" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>28</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B350" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>28</v>
+      </c>
+      <c r="B352" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>28</v>
+      </c>
+      <c r="B353" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>28</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>28</v>
+      </c>
+      <c r="B356" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B357" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>28</v>
+      </c>
+      <c r="B358" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>28</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>28</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>28</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>28</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>28</v>
+      </c>
+      <c r="B365" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>28</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>28</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>28</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>28</v>
+      </c>
+      <c r="B370" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>28</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>28</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>28</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>28</v>
+      </c>
+      <c r="B375" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>28</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>28</v>
+      </c>
+      <c r="B379" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>28</v>
+      </c>
+      <c r="B380" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>28</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>28</v>
+      </c>
+      <c r="B383" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B384" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>28</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B386" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
+      <c r="H417" s="2"/>
+      <c r="I417" s="2"/>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>28</v>
+      </c>
+      <c r="B420" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>28</v>
+      </c>
+      <c r="B421" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>28</v>
+      </c>
+      <c r="B423" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>28</v>
+      </c>
+      <c r="B424" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>28</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A426" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>28</v>
+      </c>
+      <c r="B427" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>28</v>
+      </c>
+      <c r="B428" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>28</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>28</v>
+      </c>
+      <c r="B431" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>28</v>
+      </c>
+      <c r="B432" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>28</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>28</v>
+      </c>
+      <c r="B435" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>28</v>
+      </c>
+      <c r="B436" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>28</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>28</v>
+      </c>
+      <c r="B439" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>28</v>
+      </c>
+      <c r="B440" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>28</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>28</v>
+      </c>
+      <c r="B443" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>28</v>
+      </c>
+      <c r="B444" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>28</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>28</v>
+      </c>
+      <c r="B447" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>28</v>
+      </c>
+      <c r="B448" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>28</v>
+      </c>
+      <c r="B450" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>28</v>
+      </c>
+      <c r="B451" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B461" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D487" s="2"/>
+      <c r="E487" s="2"/>
+      <c r="F487" s="2"/>
+      <c r="G487" s="2"/>
+      <c r="H487" s="2"/>
+      <c r="I487" s="2"/>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A489" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B489" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>28</v>
+      </c>
+      <c r="B490" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>28</v>
+      </c>
+      <c r="B491" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>28</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A493" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>28</v>
+      </c>
+      <c r="B494" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>28</v>
+      </c>
+      <c r="B495" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>28</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B497" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>28</v>
+      </c>
+      <c r="B498" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B499" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>28</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B501" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>28</v>
+      </c>
+      <c r="B503" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>28</v>
+      </c>
+      <c r="B504" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>28</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B506" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>28</v>
+      </c>
+      <c r="B507" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B508" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>28</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B510" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B512" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B514" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B516" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B518" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B520" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B522" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D536" s="2"/>
+      <c r="E536" s="2"/>
+      <c r="F536" s="2"/>
+      <c r="G536" s="2"/>
+      <c r="H536" s="2"/>
+      <c r="I536" s="2"/>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A538" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B538" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>28</v>
+      </c>
+      <c r="B539" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A540" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B540" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>28</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A542" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B542" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A543" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>28</v>
+      </c>
+      <c r="B544" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B545" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>28</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B547" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>28</v>
+      </c>
+      <c r="B549" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B550" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>28</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B552" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>28</v>
+      </c>
+      <c r="B554" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>28</v>
+      </c>
+      <c r="B555" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>28</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>28</v>
+      </c>
+      <c r="B558" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>28</v>
+      </c>
+      <c r="B559" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>28</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>28</v>
+      </c>
+      <c r="B562" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>28</v>
+      </c>
+      <c r="B563" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>28</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>28</v>
+      </c>
+      <c r="B566" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>28</v>
+      </c>
+      <c r="B567" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>28</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>28</v>
+      </c>
+      <c r="B570" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>28</v>
+      </c>
+      <c r="B571" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>28</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B580" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B582" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B583" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B584" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B585" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A536:C585" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>